--- a/PVB Stage Applicatie/App_Data/uploads/BedrijfInvoegen.xlsx
+++ b/PVB Stage Applicatie/App_Data/uploads/BedrijfInvoegen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kris\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kris\Desktop\Share\PVB presentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>Bedrijfsnaam</t>
   </si>
@@ -48,31 +48,190 @@
     <t>Email</t>
   </si>
   <si>
-    <t>De Turk</t>
+    <t>Beans</t>
+  </si>
+  <si>
+    <t>09293456</t>
+  </si>
+  <si>
+    <t>Enschede</t>
+  </si>
+  <si>
+    <t>Capitool</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>7475ER</t>
+  </si>
+  <si>
+    <t>0543745678</t>
+  </si>
+  <si>
+    <t>Info@Beans.nl</t>
+  </si>
+  <si>
+    <t>08967453</t>
+  </si>
+  <si>
+    <t>Langeweg</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>7588OR</t>
+  </si>
+  <si>
+    <t>0543654738</t>
+  </si>
+  <si>
+    <t>Help@Logic4.nl</t>
+  </si>
+  <si>
+    <t>Logic4</t>
+  </si>
+  <si>
+    <t>ChainWise</t>
+  </si>
+  <si>
+    <t>09345122</t>
   </si>
   <si>
     <t>Hengelo</t>
   </si>
   <si>
-    <t>Enschedesestraat</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>3223er</t>
-  </si>
-  <si>
-    <t>0258212345</t>
-  </si>
-  <si>
-    <t>info@DeTurk.nl</t>
-  </si>
-  <si>
-    <t>123412342</t>
+    <t>Demmersweg</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>7556OO</t>
+  </si>
+  <si>
+    <t>0546232013</t>
+  </si>
+  <si>
+    <t>Info@Chainwise.nl</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>01029837</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Singel</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>5434KI</t>
+  </si>
+  <si>
+    <t>0744092382</t>
+  </si>
+  <si>
+    <t>Google@it.com</t>
+  </si>
+  <si>
+    <t>Bing</t>
+  </si>
+  <si>
+    <t>02372839</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>Micro weg</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>6466PO</t>
+  </si>
+  <si>
+    <t>0238439848</t>
+  </si>
+  <si>
+    <t>Bing@me.com</t>
+  </si>
+  <si>
+    <t>02372109</t>
+  </si>
+  <si>
+    <t>Almelo</t>
+  </si>
+  <si>
+    <t>Almeloseweg</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>9932IM</t>
+  </si>
+  <si>
+    <t>0235263232</t>
+  </si>
+  <si>
+    <t>Info@bizzdesign.nl</t>
+  </si>
+  <si>
+    <t>WebBuilders</t>
+  </si>
+  <si>
+    <t>02372128</t>
+  </si>
+  <si>
+    <t>Oldenzaal</t>
+  </si>
+  <si>
+    <t>Essenlaan</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>4636ER</t>
+  </si>
+  <si>
+    <t>0563429238</t>
+  </si>
+  <si>
+    <t>We@build.web</t>
+  </si>
+  <si>
+    <t>sletjesbv</t>
+  </si>
+  <si>
+    <t>Benjamin BV</t>
+  </si>
+  <si>
+    <t>27372838</t>
+  </si>
+  <si>
+    <t>Getfertsweg</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2387II</t>
+  </si>
+  <si>
+    <t>0230239923</t>
+  </si>
+  <si>
+    <t>bnejamin@info.nl</t>
   </si>
 </sst>
 </file>
@@ -446,11 +605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,37 +656,216 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XDl/LqIw7xmns7EV6DOf+hNlZmwrvjpGQf8yHosPcUNNlBdR2c6Ze2yduRDxB433zwu8GLF33BNhAZmEXD+l8g==" saltValue="uKyi2zdKuVdbr5JbmobJDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CnpAQOmrj+dQQ1yBtSHrSYVy/A1kCfomWg7n9+v/NlQ7VZjhOPTO0WMgyow8ZaVmYNw6MWuWCUGtY81SXrNdyA==" saltValue="VnKMQS4sjIeQ0fLcIUU7yA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="A2:I999" name="Bereik1"/>
+    <protectedRange sqref="A2:I998" name="Bereik1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
